--- a/public/docs/plantilla_productos.xlsx
+++ b/public/docs/plantilla_productos.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesus.lira\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesus\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B744EB-C2D0-4DBB-96D0-0D49BEF44C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>codigo_barras</t>
   </si>
@@ -39,13 +40,22 @@
   </si>
   <si>
     <t>existencia</t>
+  </si>
+  <si>
+    <t>proveedor</t>
+  </si>
+  <si>
+    <t>categoria</t>
+  </si>
+  <si>
+    <t>material</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,6 +68,12 @@
       <i/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -388,23 +404,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.28515625" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,8 +439,18 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
